--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_78.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_78.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,618 +488,668 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_287</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_107</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2625</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['A/b3', 'A/3', 'D', 'A'], ['A/3', 'D', 'A', 'A/2']]</t>
-        </is>
+          <t>schubert-winterreise_187</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_141</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.09642857142857142</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['E', 'E', 'A', 'E'], ['E', 'A', 'E', 'E']]</t>
+          <t>[['C/G', 'G:7', 'C']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(65.369945, 71.679931), (65.81034, 72.097891)]</t>
+          <t>[['F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(122.976598, 134.098957), (15.027029, 22.457415)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>[('0:03:56.400000', '0:03:59.980000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:01:12.640000', '0:01:19.220000')]</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_296</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_194</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.07542426147077311</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['C:maj', 'G:maj', 'D:maj'], ['C:maj', 'G/3', 'G:maj'], ['G:maj', 'C:maj', 'G/3']]</t>
-        </is>
+          <t>schubert-winterreise_1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>jaah_77</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2130681818181818</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['G', 'D', 'A'], ['G', 'D', 'D'], ['D', 'G', 'D']]</t>
+          <t>[['E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(16.277, 24.195), (40.171, 43.498), (5.146, 9.474)]</t>
+          <t>[['G:7', 'C', 'G:7', 'C']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(59.20524, 66.101566), (10.919344, 16.143834), (144.085784, 149.240614)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+          <t>[('0:00:20.340000', '0:00:24.780000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:20.040000', '0:00:23.450000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_79</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_182</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.3348837209302326</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_122</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_233</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.082579185520362</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>[['B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(7.284457, 20.438561)]</t>
+          <t>[['D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(154.02, 159.24)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+          <t>[('0:01:20.200000', '0:01:26.860000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:36.711000', '0:00:39.787000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_152</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jaah_3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.08547008547008547</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['B:7', 'E', 'A/3']]</t>
-        </is>
+          <t>schubert-winterreise_174</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_78</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.3333333333333333</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'Eb']]</t>
+          <t>[['F:7/A#', 'F:(3,5,b7,b9)/A#', 'A#:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(45.712, 51.648)]</t>
+          <t>[['A:7', 'A:(3,5,b7,b9)/G', 'D:min/F']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(31.89, 34.57)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:00:06.160000', '0:00:23.860000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:02:06.620000', '0:02:09.240000')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>isophonics_197</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_57</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.08492822966507177</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['A', 'F#:min', 'D'], ['D', 'E', 'A']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(13.72, 22.2)]</t>
+          <t>[['G', 'E:min', 'C'], ['C', 'D', 'G']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(41.08, 43.34)]</t>
+          <t>[('0:00:08.367506', '0:00:19.977483'), ('0:00:16.088141', '0:00:27.709728')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:52.304693', '0:00:57.401473'), ('0:00:17.788231', '0:00:22.107142')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_35</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>jaah_1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C', 'C/7']]</t>
-        </is>
+          <t>schubert-winterreise_3</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_72</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'Eb']]</t>
+          <t>[['C#:maj', 'G#:7', 'C#:maj', 'G#:7', 'C#:maj', 'G#:maj', 'C#:maj', 'G#:maj', 'C#:maj', 'G#:maj', 'C#:maj', 'G#:maj', 'C#:maj', 'F#:7', 'B:maj', 'D#:7/A#', 'A:(3,5)', 'C#:maj', 'A#:(3,5,b7,b9)', 'D#:min/G#', 'F#:maj/G#', 'G#:7', 'C#:maj', 'C#:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(12.851927, 16.810929)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(6.88, 12.97)]</t>
+          <t>[('0:00:00.480000', '0:00:35.060000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:1dxbAIfCASqv6jix2R1Taj</t>
+          <t>[('0:00:00.380000', '0:00:31.160000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>jaah_0</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_104</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1142241379310345</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['Ab', 'Eb:7', 'Ab']]</t>
-        </is>
+          <t>schubert-winterreise_131</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_153</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj']]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(25.22, 27.17)]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(0.24, 8.18)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:01:00.320000', '0:01:06.700000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:00:57.520000', '0:01:03.420000')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>jaah_54</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_13</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1141025641025641</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['Bb:7', 'Eb', 'Bb:7', 'Eb']]</t>
-        </is>
+          <t>isophonics_101</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_74</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4666666666666667</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['F#:7', 'B:maj', 'F#:7', 'B:maj']]</t>
+          <t>[['C#', 'F#/5', 'C#', 'F#/5']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(33.31, 47.63)]</t>
+          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(8.2, 10.96)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>[('0:00:31.469410', '0:02:07.006105')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:02:09.380000', '0:02:14.740000')]</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_23</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>jaah_3</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1944444444444444</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'D:7']]</t>
-        </is>
+          <t>schubert-winterreise_149</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_165</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'Bb:7']]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(11.1, 18.02)]</t>
+          <t>[['A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A:dim7', 'A#:min', 'A:dim7', 'F:maj/C', 'A#:min/C#', 'G#:maj/C', 'F#:maj/A#', 'C#:maj/G#', 'F#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:maj/A#', 'F:min/C', 'C:7', 'F:min', 'E:dim7/G', 'F:min/G#', 'F:(3,5,b7,b9)/A', 'A#:min', 'A#:(3,5,b7,b9)', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A:dim7', 'C:hdim7/D#', 'A:dim7', 'C:hdim7/D#', 'F:(3,5,b7,b9)', 'A#:min', 'A#:(3,5,b7,b9)/D', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A#:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(44.07, 46.31)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
+          <t>[('0:00:10.560000', '0:01:09.420000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:00:09.700000', '0:01:02.320000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_46</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_166</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1238738738738739</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['D', 'G', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_88</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_31</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5050505050505051</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(28.921995, 33.101587)]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(67.14, 70.82)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
+          <t>[('0:00:16.040000', '0:00:21')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:07.900000', '0:00:20.520000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>jaah_20</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>jaah_14</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.09545454545454546</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['Bb:7', 'Eb', 'Eb']]</t>
-        </is>
+          <t>schubert-winterreise_192</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_38</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['Eb:7', 'Ab', 'Ab']]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(8.86, 14.12)]</t>
+          <t>[['D#:min', 'B', 'F:hdim7/G#', 'A#:7', 'D#:min', 'G#:min/B', 'A#:7', 'F#:min/A', 'G#:7', 'C#:min', 'G#:7', 'C#:min', 'G#', 'G#:min', 'D#:min/A#', 'A#', 'D#:min/A#', 'A#', 'D#:min', 'A#', 'D#:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(22.01, 26.6)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:00:17.320000', '0:01:02.460000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:16.520000', '0:01:04.980000')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_34</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_11</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1083333333333333</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['C:min/G', 'G', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_85</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_98</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.3736263736263736</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:maj', 'C:min']]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(11.82, 16.4)]</t>
+          <t>[['C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(7.96, 13.12)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:00:00.660000', '0:00:07.700000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:45.260000', '0:00:57.580000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_41</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_166</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2152777777777778</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['G', 'C', 'F']]</t>
-        </is>
+          <t>schubert-winterreise_186</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_23</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'G']]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(56.279931, 60.633673)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(51.473401, 60.146054)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+          <t>[('0:01:53.020000', '0:01:54.760000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:29.020000', '0:00:40.820000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_53</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.6708333333333334</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
-        </is>
+          <t>isophonics_251</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>isophonics_221</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.3650793650793651</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['G', 'D', 'G', 'D']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(24.86, 52.58)]</t>
+          <t>[['F/2', 'C', 'F', 'C/3']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(120.4, 123.78)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:09.370997', '0:00:16.557573')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:57.758000', '0:01:05.204000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_162</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>jaah_52</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.2154471544715447</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'A', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_1</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_147</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['F', 'Bb', 'F', 'F']]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(28.450816, 40.095623)]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(62.53, 68.09)]</t>
+          <t>[('0:00:07.020000', '0:00:24.780000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_188</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_11</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1833333333333333</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min', 'C:maj'], ['F:maj', 'A#:maj', 'F:maj'], ['F:min', 'C:maj', 'F:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C:min/G', 'G:maj'], ['C:maj', 'F:maj', 'C:maj/E'], ['C:min', 'G:maj', 'C:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(13.9, 18.82), (128.76, 133.56), (1.18, 6.14)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(32.66, 35.46), (69.86, 73.74), (7.96, 13.12)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
+          <t>[('0:00:07.760000', '0:00:25.820000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
